--- a/data/trans_orig/P2B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>180726</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>157794</v>
+        <v>157742</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>205776</v>
+        <v>205027</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2039662057707179</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1780856331107357</v>
+        <v>0.1780265639046256</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2322380413743904</v>
+        <v>0.2313929000438562</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>307</v>
@@ -765,19 +765,19 @@
         <v>314722</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>284010</v>
+        <v>286773</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>344119</v>
+        <v>345439</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2612365945439747</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2357437625463459</v>
+        <v>0.2380375199313906</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2856375377855841</v>
+        <v>0.2867338307378557</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>490</v>
@@ -786,19 +786,19 @@
         <v>495448</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>458972</v>
+        <v>455262</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>532251</v>
+        <v>536400</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2369660179735655</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2195201307970689</v>
+        <v>0.217745610478065</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2545684495741284</v>
+        <v>0.2565528680262752</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>705331</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>680281</v>
+        <v>681030</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>728263</v>
+        <v>728315</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7960337942292821</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7677619586256099</v>
+        <v>0.768607099956144</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8219143668892644</v>
+        <v>0.8219734360953744</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>875</v>
@@ -836,19 +836,19 @@
         <v>890017</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>860620</v>
+        <v>859300</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>920729</v>
+        <v>917966</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7387634054560253</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7143624622144163</v>
+        <v>0.7132661692621443</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7642562374536549</v>
+        <v>0.7619624800686093</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1592</v>
@@ -857,19 +857,19 @@
         <v>1595348</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1558545</v>
+        <v>1554396</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1631824</v>
+        <v>1635534</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7630339820264345</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7454315504258716</v>
+        <v>0.7434471319737248</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7804798692029311</v>
+        <v>0.782254389521935</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>262894</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>234569</v>
+        <v>233464</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>292767</v>
+        <v>292554</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2199609446654068</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1962612342252134</v>
+        <v>0.1953370331964528</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2449552235627315</v>
+        <v>0.2447765883099738</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>320</v>
@@ -982,19 +982,19 @@
         <v>332891</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>301673</v>
+        <v>300296</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>365378</v>
+        <v>363573</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2580345618081849</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2338362592927241</v>
+        <v>0.2327688246799922</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2832158594283007</v>
+        <v>0.2818165012884423</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>572</v>
@@ -1003,19 +1003,19 @@
         <v>595786</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>555520</v>
+        <v>553280</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>637426</v>
+        <v>636406</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2397248005753514</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2235230832483683</v>
+        <v>0.2226217013129021</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2564795063844387</v>
+        <v>0.2560688347236255</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>932293</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>902420</v>
+        <v>902633</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>960618</v>
+        <v>961723</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7800390553345932</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7550447764372685</v>
+        <v>0.7552234116900264</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8037387657747866</v>
+        <v>0.8046629668035477</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>940</v>
@@ -1053,19 +1053,19 @@
         <v>957213</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>924726</v>
+        <v>926531</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>988431</v>
+        <v>989808</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.741965438191815</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7167841405716988</v>
+        <v>0.7181834987115577</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7661637407072754</v>
+        <v>0.7672311753200081</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1856</v>
@@ -1074,19 +1074,19 @@
         <v>1889505</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1847865</v>
+        <v>1848885</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1929771</v>
+        <v>1932011</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7602751994246486</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7435204936155614</v>
+        <v>0.7439311652763745</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7764769167516318</v>
+        <v>0.7773782986870978</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>94470</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78793</v>
+        <v>77749</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>111018</v>
+        <v>113098</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.246503090212365</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2055987390862129</v>
+        <v>0.2028740689328125</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2896839040221268</v>
+        <v>0.2951115928826979</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>100</v>
@@ -1199,19 +1199,19 @@
         <v>104907</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>88833</v>
+        <v>88453</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>125008</v>
+        <v>124303</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2770851213460988</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2346290078687582</v>
+        <v>0.2336245806870453</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3301772890689894</v>
+        <v>0.3283144844847106</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>189</v>
@@ -1220,19 +1220,19 @@
         <v>199377</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>174776</v>
+        <v>176391</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>224130</v>
+        <v>224787</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.261701202825203</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2294107668577931</v>
+        <v>0.231530305141095</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.294192037390798</v>
+        <v>0.2950543739631954</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>288769</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>272221</v>
+        <v>270141</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>304446</v>
+        <v>305490</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7534969097876349</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7103160959778732</v>
+        <v>0.7048884071173021</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.794401260913787</v>
+        <v>0.7971259310671875</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>257</v>
@@ -1270,19 +1270,19 @@
         <v>273703</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>253602</v>
+        <v>254307</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>289777</v>
+        <v>290157</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7229148786539012</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6698227109310106</v>
+        <v>0.6716855155152894</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7653709921312418</v>
+        <v>0.7663754193129547</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>536</v>
@@ -1291,19 +1291,19 @@
         <v>562471</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>537718</v>
+        <v>537061</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>587072</v>
+        <v>585457</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7382987971747971</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.705807962609202</v>
+        <v>0.7049456260368044</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7705892331422068</v>
+        <v>0.768469694858905</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>538090</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>492223</v>
+        <v>497659</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>577102</v>
+        <v>579595</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2183377730115744</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1997265867019365</v>
+        <v>0.2019323028156871</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2341677167569262</v>
+        <v>0.2351793067866018</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>727</v>
@@ -1416,19 +1416,19 @@
         <v>752521</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>706030</v>
+        <v>705545</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>804131</v>
+        <v>798648</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2618871887969719</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2457077454174861</v>
+        <v>0.2455391409605985</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2798482340344395</v>
+        <v>0.2779402567556291</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1251</v>
@@ -1437,19 +1437,19 @@
         <v>1290610</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1231438</v>
+        <v>1224048</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1352544</v>
+        <v>1356577</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2417807702481004</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2306955416027019</v>
+        <v>0.2293111814613061</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2533832606091192</v>
+        <v>0.2541389126447806</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1926393</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1887381</v>
+        <v>1884888</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1972260</v>
+        <v>1966824</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7816622269884257</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7658322832430736</v>
+        <v>0.7648206932133982</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8002734132980636</v>
+        <v>0.7980676971843129</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2072</v>
@@ -1487,19 +1487,19 @@
         <v>2120932</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2069322</v>
+        <v>2074805</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2167423</v>
+        <v>2167908</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7381128112030282</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7201517659655604</v>
+        <v>0.7220597432443707</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7542922545825138</v>
+        <v>0.7544608590394014</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3984</v>
@@ -1508,19 +1508,19 @@
         <v>4047326</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3985392</v>
+        <v>3981359</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4106498</v>
+        <v>4113888</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7582192297518996</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7466167393908808</v>
+        <v>0.7458610873552195</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7693044583972981</v>
+        <v>0.7706888185386939</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>413135</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>383436</v>
+        <v>382029</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>444886</v>
+        <v>443454</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4745845092097338</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4404684244462477</v>
+        <v>0.4388517939517613</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5110583524210152</v>
+        <v>0.5094128930847913</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>538</v>
@@ -1872,19 +1872,19 @@
         <v>583210</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>546946</v>
+        <v>547689</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>619004</v>
+        <v>619393</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4610066656711444</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4323417675624036</v>
+        <v>0.4329286346784317</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4893005121520512</v>
+        <v>0.4896084680952091</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>920</v>
@@ -1893,19 +1893,19 @@
         <v>996345</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>947588</v>
+        <v>945763</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1046896</v>
+        <v>1045599</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4665413074262542</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.443710631298824</v>
+        <v>0.4428564272207607</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4902119514876461</v>
+        <v>0.4896047243916106</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>457384</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>425633</v>
+        <v>427065</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>487083</v>
+        <v>488490</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5254154907902662</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4889416475789848</v>
+        <v>0.4905871069152088</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5595315755537521</v>
+        <v>0.5611482060482388</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>643</v>
@@ -1943,19 +1943,19 @@
         <v>681869</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>646075</v>
+        <v>645686</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>718133</v>
+        <v>717390</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5389933343288555</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5106994878479488</v>
+        <v>0.5103915319047908</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5676582324375964</v>
+        <v>0.5670713653215683</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1070</v>
@@ -1964,19 +1964,19 @@
         <v>1139253</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1088702</v>
+        <v>1089999</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1188010</v>
+        <v>1189835</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5334586925737458</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5097880485123537</v>
+        <v>0.5103952756083897</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5562893687011758</v>
+        <v>0.5571435727792394</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>825031</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>782723</v>
+        <v>784905</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>865331</v>
+        <v>864833</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5444291639506678</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5165106038117089</v>
+        <v>0.5179507734230139</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5710232064904635</v>
+        <v>0.5706945002028165</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>851</v>
@@ -2089,19 +2089,19 @@
         <v>909461</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>871331</v>
+        <v>866933</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>948916</v>
+        <v>947503</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6036506979350567</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5783421045664797</v>
+        <v>0.5754228314773042</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6298391675630957</v>
+        <v>0.6289010440983973</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1635</v>
@@ -2110,19 +2110,19 @@
         <v>1734491</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1676214</v>
+        <v>1674323</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1785671</v>
+        <v>1787974</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5739536700640497</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5546692497573426</v>
+        <v>0.5540434479791412</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.590889361717743</v>
+        <v>0.591651425872451</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>690374</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>650074</v>
+        <v>650572</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>732682</v>
+        <v>730500</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4555708360493322</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4289767935095368</v>
+        <v>0.4293054997971837</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4834893961882916</v>
+        <v>0.4820492265769862</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>547</v>
@@ -2160,19 +2160,19 @@
         <v>597140</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>557685</v>
+        <v>559098</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>635270</v>
+        <v>639668</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3963493020649433</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3701608324369043</v>
+        <v>0.3710989559016024</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4216578954335203</v>
+        <v>0.4245771685226957</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1194</v>
@@ -2181,19 +2181,19 @@
         <v>1287515</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1236335</v>
+        <v>1234032</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1345792</v>
+        <v>1347683</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4260463299359503</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4091106382822569</v>
+        <v>0.408348574127549</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4453307502426573</v>
+        <v>0.4459565520208588</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>182903</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>162980</v>
+        <v>161957</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>203243</v>
+        <v>201752</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5118276799280063</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4560743779978025</v>
+        <v>0.4532135611904528</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5687467023404779</v>
+        <v>0.5645734927995897</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>192</v>
@@ -2306,19 +2306,19 @@
         <v>207613</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>187828</v>
+        <v>186169</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>227857</v>
+        <v>226097</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5629554815366067</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5093084001013998</v>
+        <v>0.5048100978702688</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6178473362156468</v>
+        <v>0.6130764990125968</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>358</v>
@@ -2327,19 +2327,19 @@
         <v>390516</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>359816</v>
+        <v>362799</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>417107</v>
+        <v>418414</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5377942727689989</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4955154870123633</v>
+        <v>0.4996237526014802</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5744139866374696</v>
+        <v>0.5762133908010161</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>174450</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>154110</v>
+        <v>155601</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>194373</v>
+        <v>195396</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4881723200719938</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4312532976595222</v>
+        <v>0.4354265072004099</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5439256220021975</v>
+        <v>0.5467864388095471</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>139</v>
@@ -2377,19 +2377,19 @@
         <v>161178</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>140934</v>
+        <v>142694</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>180963</v>
+        <v>182622</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4370445184633933</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3821526637843533</v>
+        <v>0.3869235009874032</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4906915998986002</v>
+        <v>0.4951899021297312</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>296</v>
@@ -2398,19 +2398,19 @@
         <v>335628</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>309037</v>
+        <v>307730</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>366328</v>
+        <v>363345</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.462205727231001</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4255860133625305</v>
+        <v>0.4237866091989839</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5044845129876367</v>
+        <v>0.5003762473985195</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>1421068</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1366720</v>
+        <v>1363439</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1472938</v>
+        <v>1475402</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5180186597196763</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4982072943866268</v>
+        <v>0.4970111071433492</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5369265782156101</v>
+        <v>0.5378249711834426</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1581</v>
@@ -2523,19 +2523,19 @@
         <v>1700284</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1643319</v>
+        <v>1640068</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1756385</v>
+        <v>1753889</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5414103649981811</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5232714898069524</v>
+        <v>0.5222362906415384</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5592743809758511</v>
+        <v>0.5584795655548865</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2913</v>
@@ -2544,19 +2544,19 @@
         <v>3121352</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3042716</v>
+        <v>3044739</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3205856</v>
+        <v>3201265</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5305040658710469</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5171390867393919</v>
+        <v>0.5174828671911477</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5448663761191027</v>
+        <v>0.5440859840952075</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>1322208</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1270338</v>
+        <v>1267874</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1376556</v>
+        <v>1379837</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4819813402803237</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.46307342178439</v>
+        <v>0.4621750288165573</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5017927056133733</v>
+        <v>0.5029888928566509</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1329</v>
@@ -2594,19 +2594,19 @@
         <v>1440187</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1384086</v>
+        <v>1386582</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1497152</v>
+        <v>1500403</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4585896350018189</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4407256190241489</v>
+        <v>0.4415204344451134</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4767285101930476</v>
+        <v>0.4777637093584615</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2560</v>
@@ -2615,19 +2615,19 @@
         <v>2762396</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2677892</v>
+        <v>2682483</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2841032</v>
+        <v>2839009</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4694959341289531</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4551336238808976</v>
+        <v>0.4559140159047925</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4828609132606084</v>
+        <v>0.4825171328088523</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>249228</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>223875</v>
+        <v>225151</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>275611</v>
+        <v>274876</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3836125991850606</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3445893922696418</v>
+        <v>0.3465532797526509</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4242225446117136</v>
+        <v>0.4230902928817946</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>337</v>
@@ -2979,19 +2979,19 @@
         <v>379298</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>347329</v>
+        <v>345086</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>409699</v>
+        <v>413227</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4078429359836235</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3734674342294665</v>
+        <v>0.371055834374155</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4405315619083454</v>
+        <v>0.4443252795285059</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>591</v>
@@ -3000,19 +3000,19 @@
         <v>628526</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>587863</v>
+        <v>590333</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>668809</v>
+        <v>666758</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3978776659334043</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3721365054226765</v>
+        <v>0.373699919069603</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4233777858175851</v>
+        <v>0.4220799336869194</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>400458</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>374075</v>
+        <v>374810</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>425811</v>
+        <v>424535</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6163874008149394</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5757774553882862</v>
+        <v>0.5769097071182053</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6554106077303581</v>
+        <v>0.6534467202473491</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>493</v>
@@ -3050,19 +3050,19 @@
         <v>550713</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>520312</v>
+        <v>516784</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>582682</v>
+        <v>584925</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5921570640163765</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5594684380916548</v>
+        <v>0.555674720471494</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6265325657705335</v>
+        <v>0.6289441656258448</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>903</v>
@@ -3071,19 +3071,19 @@
         <v>951171</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>910888</v>
+        <v>912939</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>991834</v>
+        <v>989364</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6021223340665957</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5766222141824149</v>
+        <v>0.5779200663130806</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6278634945773234</v>
+        <v>0.626300080930397</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>619865</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>582394</v>
+        <v>580194</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>659932</v>
+        <v>659483</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.41524457798169</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3901433724567526</v>
+        <v>0.3886693384464111</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4420851996746518</v>
+        <v>0.4417848374563206</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>767</v>
@@ -3196,19 +3196,19 @@
         <v>795275</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>756731</v>
+        <v>751105</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>839816</v>
+        <v>834733</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.494141298697955</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4701917665333067</v>
+        <v>0.4666964455645761</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5218163158458637</v>
+        <v>0.5186580654374565</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1353</v>
@@ -3217,19 +3217,19 @@
         <v>1415140</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1363805</v>
+        <v>1361345</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1476433</v>
+        <v>1473227</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4561761557882364</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4396281220415948</v>
+        <v>0.4388350898102315</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4759343228369216</v>
+        <v>0.4749007095755313</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>872905</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>832838</v>
+        <v>833287</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>910376</v>
+        <v>912576</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.58475542201831</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5579148003253485</v>
+        <v>0.5582151625436793</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6098566275432473</v>
+        <v>0.6113306615535889</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>771</v>
@@ -3267,19 +3267,19 @@
         <v>814134</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>769593</v>
+        <v>774676</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>852678</v>
+        <v>858304</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.505858701302045</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4781836841541363</v>
+        <v>0.4813419345625436</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5298082334666934</v>
+        <v>0.533303554435424</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1598</v>
@@ -3288,19 +3288,19 @@
         <v>1687039</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1625746</v>
+        <v>1628952</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1738374</v>
+        <v>1740834</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5438238442117636</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5240656771630784</v>
+        <v>0.5250992904244687</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5603718779584052</v>
+        <v>0.5611649101897683</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>165470</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>145551</v>
+        <v>146846</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>184477</v>
+        <v>184680</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4798694031993916</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4221027632359187</v>
+        <v>0.4258590104816978</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5349910040765119</v>
+        <v>0.5355795671245193</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>199</v>
@@ -3413,19 +3413,19 @@
         <v>209174</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>189355</v>
+        <v>189492</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>230521</v>
+        <v>229007</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5123953642314872</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4638472223440557</v>
+        <v>0.464181787182303</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5646860260964126</v>
+        <v>0.5609773682147036</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>350</v>
@@ -3434,19 +3434,19 @@
         <v>374645</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>345320</v>
+        <v>344492</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>401172</v>
+        <v>402111</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4975016846018334</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4585603999324914</v>
+        <v>0.4574605186647784</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.532728431339898</v>
+        <v>0.5339747850890796</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>179353</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>160346</v>
+        <v>160143</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>199272</v>
+        <v>197977</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5201305968006084</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4650089959234882</v>
+        <v>0.4644204328754807</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5778972367640813</v>
+        <v>0.5741409895183022</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>189</v>
@@ -3484,19 +3484,19 @@
         <v>199054</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>177707</v>
+        <v>179221</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>218873</v>
+        <v>218736</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4876046357685127</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4353139739035873</v>
+        <v>0.4390226317852964</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5361527776559443</v>
+        <v>0.5358182128176968</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>351</v>
@@ -3505,19 +3505,19 @@
         <v>378407</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>351880</v>
+        <v>350941</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>407732</v>
+        <v>408560</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5024983153981666</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4672715686601019</v>
+        <v>0.4660252149109204</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5414396000675086</v>
+        <v>0.5425394813352217</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>1034562</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>984603</v>
+        <v>986875</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1089379</v>
+        <v>1083391</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4159414441717271</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3958554096567689</v>
+        <v>0.396768962689892</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4379801134855572</v>
+        <v>0.4355728279009023</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1303</v>
@@ -3630,19 +3630,19 @@
         <v>1383748</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1326216</v>
+        <v>1328752</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1435269</v>
+        <v>1437710</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4694414017687994</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4499235557594282</v>
+        <v>0.4507838132936549</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4869200072418486</v>
+        <v>0.4877480331765705</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2294</v>
@@ -3651,19 +3651,19 @@
         <v>2418311</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2344159</v>
+        <v>2348546</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2494011</v>
+        <v>2498667</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4449572968976246</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4313137928304385</v>
+        <v>0.4321208595703699</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4588858121377837</v>
+        <v>0.4597425118410154</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>1452717</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1397900</v>
+        <v>1403888</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1502676</v>
+        <v>1500404</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5840585558282729</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.562019886514443</v>
+        <v>0.5644271720990975</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6041445903432312</v>
+        <v>0.6032310373101077</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1453</v>
@@ -3701,19 +3701,19 @@
         <v>1563900</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1512379</v>
+        <v>1509938</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1621432</v>
+        <v>1618896</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5305585982312006</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5130799927581514</v>
+        <v>0.5122519668234303</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5500764442405718</v>
+        <v>0.5492161867063452</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2852</v>
@@ -3722,19 +3722,19 @@
         <v>3016617</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2940917</v>
+        <v>2936261</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3090769</v>
+        <v>3086382</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5550427031023755</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5411141878622162</v>
+        <v>0.5402574881589846</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5686862071695613</v>
+        <v>0.5678791404296301</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>125379</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>109038</v>
+        <v>107110</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>145032</v>
+        <v>143973</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2620195692537984</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2278699444126719</v>
+        <v>0.223840636733203</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.303091222667086</v>
+        <v>0.3008765796663841</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>498</v>
@@ -4086,19 +4086,19 @@
         <v>278715</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>258812</v>
+        <v>259062</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>298474</v>
+        <v>299611</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3739656736275454</v>
+        <v>0.3739656736275455</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3472607496579723</v>
+        <v>0.3475967983579716</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4004783177741759</v>
+        <v>0.4020035087520721</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>669</v>
@@ -4107,19 +4107,19 @@
         <v>404094</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>378384</v>
+        <v>380744</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>431302</v>
+        <v>435201</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3301944606392878</v>
+        <v>0.3301944606392879</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3091864885759091</v>
+        <v>0.3111150343187008</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3524270534138948</v>
+        <v>0.3556131417567088</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>353132</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>333479</v>
+        <v>334538</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>369473</v>
+        <v>371401</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7379804307462015</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6969087773329137</v>
+        <v>0.6991234203336152</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7721300555873281</v>
+        <v>0.7761593632667969</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>818</v>
@@ -4157,19 +4157,19 @@
         <v>466580</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>446821</v>
+        <v>445684</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>486483</v>
+        <v>486233</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6260343263724545</v>
+        <v>0.6260343263724546</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5995216822258242</v>
+        <v>0.597996491247928</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6527392503420276</v>
+        <v>0.6524032016420284</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1250</v>
@@ -4178,19 +4178,19 @@
         <v>819712</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>792504</v>
+        <v>788605</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>845422</v>
+        <v>843062</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6698055393607121</v>
+        <v>0.6698055393607122</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6475729465861052</v>
+        <v>0.6443868582432911</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6908135114240909</v>
+        <v>0.6888849656812992</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>348450</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>314067</v>
+        <v>314923</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>383477</v>
+        <v>382665</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2429726518056671</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2189978313747931</v>
+        <v>0.2195945597175367</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2673974689431162</v>
+        <v>0.2668309080107027</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>527</v>
@@ -4303,19 +4303,19 @@
         <v>414441</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>381930</v>
+        <v>382667</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>447800</v>
+        <v>447274</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2556760257793503</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.235619550750119</v>
+        <v>0.2360741596425454</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2762561536058274</v>
+        <v>0.2759313465277272</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>850</v>
@@ -4324,19 +4324,19 @@
         <v>762890</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>715492</v>
+        <v>717070</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>815496</v>
+        <v>813187</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2497128150557767</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2341982359318974</v>
+        <v>0.2347145478285818</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2669319278733729</v>
+        <v>0.2661760445505974</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1085660</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1050633</v>
+        <v>1051445</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1120043</v>
+        <v>1119187</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7570273481943329</v>
+        <v>0.7570273481943327</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.732602531056884</v>
+        <v>0.7331690919892971</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7810021686252068</v>
+        <v>0.7804054402824633</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1735</v>
@@ -4374,19 +4374,19 @@
         <v>1206520</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1173161</v>
+        <v>1173687</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1239031</v>
+        <v>1238294</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7443239742206496</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7237438463941724</v>
+        <v>0.7240686534722729</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7643804492498809</v>
+        <v>0.7639258403574546</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2792</v>
@@ -4395,19 +4395,19 @@
         <v>2292181</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2239575</v>
+        <v>2241884</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2339579</v>
+        <v>2338001</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7502871849442233</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7330680721266272</v>
+        <v>0.7338239554494025</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7658017640681029</v>
+        <v>0.7652854521714181</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>96553</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79466</v>
+        <v>78736</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119302</v>
+        <v>118611</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2113072874522173</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.173910704049526</v>
+        <v>0.1723143695051485</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2610919810034898</v>
+        <v>0.2595815710421244</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>139</v>
@@ -4520,19 +4520,19 @@
         <v>104012</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>89384</v>
+        <v>87960</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>121156</v>
+        <v>120997</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2049322379250495</v>
+        <v>0.2049322379250496</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1761110328706721</v>
+        <v>0.1733061203380693</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2387103148212313</v>
+        <v>0.2383983015589944</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>223</v>
@@ -4541,19 +4541,19 @@
         <v>200565</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>177302</v>
+        <v>177713</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>227828</v>
+        <v>226548</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2079525034902184</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1838329601025615</v>
+        <v>0.1842583296876729</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.23621928392948</v>
+        <v>0.2348925124611427</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>360380</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>337631</v>
+        <v>338322</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>377467</v>
+        <v>378197</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7886927125477827</v>
+        <v>0.7886927125477828</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7389080189965099</v>
+        <v>0.7404184289578755</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8260892959504741</v>
+        <v>0.8276856304948514</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>581</v>
@@ -4591,19 +4591,19 @@
         <v>403530</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>386386</v>
+        <v>386545</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>418158</v>
+        <v>419582</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7950677620749504</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7612896851787687</v>
+        <v>0.7616016984410054</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8238889671293282</v>
+        <v>0.8266938796619306</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>969</v>
@@ -4612,19 +4612,19 @@
         <v>763911</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>736648</v>
+        <v>737928</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>787174</v>
+        <v>786763</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7920474965097815</v>
+        <v>0.7920474965097816</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7637807160705201</v>
+        <v>0.7651074875388573</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8161670398974386</v>
+        <v>0.8157416703123272</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>570382</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>526805</v>
+        <v>523199</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>613406</v>
+        <v>615493</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2407128176643516</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2223225045144276</v>
+        <v>0.2208005087210437</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2588697600197918</v>
+        <v>0.259750580829092</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1164</v>
@@ -4737,19 +4737,19 @@
         <v>797167</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>758503</v>
+        <v>758162</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>841653</v>
+        <v>839613</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2773915433704832</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2639374676472365</v>
+        <v>0.2638186517094401</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2928712121334576</v>
+        <v>0.2921614655784026</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1742</v>
@@ -4758,19 +4758,19 @@
         <v>1367549</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1309062</v>
+        <v>1306988</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1435323</v>
+        <v>1427407</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2608158447120908</v>
+        <v>0.2608158447120909</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2496612603477634</v>
+        <v>0.2492656426822975</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2737415173832675</v>
+        <v>0.2722318191846292</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>1799172</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1756148</v>
+        <v>1754061</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1842749</v>
+        <v>1846355</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7592871823356485</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7411302399802082</v>
+        <v>0.740249419170908</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7776774954855725</v>
+        <v>0.7791994912789563</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3134</v>
@@ -4808,19 +4808,19 @@
         <v>2076631</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2032145</v>
+        <v>2034185</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2115295</v>
+        <v>2115636</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7226084566295167</v>
+        <v>0.7226084566295168</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7071287878665424</v>
+        <v>0.7078385344215974</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7360625323527639</v>
+        <v>0.7361813482905599</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5011</v>
@@ -4829,19 +4829,19 @@
         <v>3875803</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3808029</v>
+        <v>3815945</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3934290</v>
+        <v>3936364</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7391841552879092</v>
+        <v>0.7391841552879093</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7262584826167328</v>
+        <v>0.7277681808153708</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7503387396522367</v>
+        <v>0.7507343573177024</v>
       </c>
     </row>
     <row r="15">
